--- a/projects/01_tau_asymmetry/media/xs_demographics.xlsx
+++ b/projects/01_tau_asymmetry/media/xs_demographics.xlsx
@@ -849,7 +849,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Global Aβ load, mean (SD)</t>
+          <t>Neocortical Aβ load, mean (SD)</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr"/>
@@ -858,22 +858,22 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.49 (0.18)</t>
+          <t>1.59 (0.20)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.53 (0.21)</t>
+          <t>1.63 (0.23)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.47 (0.20)</t>
+          <t>1.56 (0.23)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.230</t>
+          <t>0.211</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
